--- a/tests/SLAMMER_results.xlsx
+++ b/tests/SLAMMER_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lornearnold/GitHub/pySLAMMER/tests/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD6B1D9F-7447-3B49-B019-8BE0398D34C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36364A97-DB85-5149-AE6C-8773C58AF4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="13520" windowHeight="16860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5060" uniqueCount="57">
   <si>
     <t>Earthquake</t>
   </si>
@@ -188,21 +188,6 @@
   </si>
   <si>
     <t>UNR-058</t>
-  </si>
-  <si>
-    <t>Chi-Chi, 1999</t>
-  </si>
-  <si>
-    <t>Duzce, 1999</t>
-  </si>
-  <si>
-    <t>Kobe, 1995</t>
-  </si>
-  <si>
-    <t>Kocaeli, 1999</t>
-  </si>
-  <si>
-    <t>Nahanni, 1985</t>
   </si>
   <si>
     <t>equivalent_linear</t>
@@ -628,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T1261"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A547" workbookViewId="0">
+      <selection activeCell="A572" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -33825,7 +33810,7 @@
     </row>
     <row r="536" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A536" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B536" s="2" t="s">
         <v>45</v>
@@ -33887,7 +33872,7 @@
     </row>
     <row r="537" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A537" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B537" s="2" t="s">
         <v>47</v>
@@ -33949,7 +33934,7 @@
     </row>
     <row r="538" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A538" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B538" s="2" t="s">
         <v>49</v>
@@ -34011,7 +33996,7 @@
     </row>
     <row r="539" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A539" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B539" s="2" t="s">
         <v>51</v>
@@ -34073,7 +34058,7 @@
     </row>
     <row r="540" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A540" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B540" s="2" t="s">
         <v>53</v>
@@ -34941,7 +34926,7 @@
     </row>
     <row r="554" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A554" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B554" s="2" t="s">
         <v>45</v>
@@ -35003,7 +34988,7 @@
     </row>
     <row r="555" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A555" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B555" s="2" t="s">
         <v>47</v>
@@ -35065,7 +35050,7 @@
     </row>
     <row r="556" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A556" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B556" s="2" t="s">
         <v>49</v>
@@ -35127,7 +35112,7 @@
     </row>
     <row r="557" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A557" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B557" s="2" t="s">
         <v>51</v>
@@ -35189,7 +35174,7 @@
     </row>
     <row r="558" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A558" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B558" s="2" t="s">
         <v>53</v>
@@ -36057,7 +36042,7 @@
     </row>
     <row r="572" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A572" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B572" s="2" t="s">
         <v>45</v>
@@ -36119,7 +36104,7 @@
     </row>
     <row r="573" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A573" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B573" s="2" t="s">
         <v>47</v>
@@ -36181,7 +36166,7 @@
     </row>
     <row r="574" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A574" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B574" s="2" t="s">
         <v>49</v>
@@ -36243,7 +36228,7 @@
     </row>
     <row r="575" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A575" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B575" s="2" t="s">
         <v>51</v>
@@ -36305,7 +36290,7 @@
     </row>
     <row r="576" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A576" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B576" s="2" t="s">
         <v>53</v>
@@ -37173,7 +37158,7 @@
     </row>
     <row r="590" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A590" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B590" s="2" t="s">
         <v>45</v>
@@ -37235,7 +37220,7 @@
     </row>
     <row r="591" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A591" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B591" s="2" t="s">
         <v>47</v>
@@ -37297,7 +37282,7 @@
     </row>
     <row r="592" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A592" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B592" s="2" t="s">
         <v>49</v>
@@ -37359,7 +37344,7 @@
     </row>
     <row r="593" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A593" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B593" s="2" t="s">
         <v>51</v>
@@ -37421,7 +37406,7 @@
     </row>
     <row r="594" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A594" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B594" s="2" t="s">
         <v>53</v>
@@ -38289,7 +38274,7 @@
     </row>
     <row r="608" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A608" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B608" s="2" t="s">
         <v>45</v>
@@ -38351,7 +38336,7 @@
     </row>
     <row r="609" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A609" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B609" s="2" t="s">
         <v>47</v>
@@ -38413,7 +38398,7 @@
     </row>
     <row r="610" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A610" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B610" s="2" t="s">
         <v>49</v>
@@ -38475,7 +38460,7 @@
     </row>
     <row r="611" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A611" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B611" s="2" t="s">
         <v>51</v>
@@ -38537,7 +38522,7 @@
     </row>
     <row r="612" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A612" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B612" s="2" t="s">
         <v>53</v>
@@ -39405,7 +39390,7 @@
     </row>
     <row r="626" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B626" s="2" t="s">
         <v>45</v>
@@ -39467,7 +39452,7 @@
     </row>
     <row r="627" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B627" s="2" t="s">
         <v>47</v>
@@ -39529,7 +39514,7 @@
     </row>
     <row r="628" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A628" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B628" s="2" t="s">
         <v>49</v>
@@ -39591,7 +39576,7 @@
     </row>
     <row r="629" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B629" s="2" t="s">
         <v>51</v>
@@ -39653,7 +39638,7 @@
     </row>
     <row r="630" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B630" s="2" t="s">
         <v>53</v>
@@ -40521,7 +40506,7 @@
     </row>
     <row r="644" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B644" s="2" t="s">
         <v>45</v>
@@ -40583,7 +40568,7 @@
     </row>
     <row r="645" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A645" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B645" s="2" t="s">
         <v>47</v>
@@ -40645,7 +40630,7 @@
     </row>
     <row r="646" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B646" s="2" t="s">
         <v>49</v>
@@ -40707,7 +40692,7 @@
     </row>
     <row r="647" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B647" s="2" t="s">
         <v>51</v>
@@ -40769,7 +40754,7 @@
     </row>
     <row r="648" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B648" s="2" t="s">
         <v>53</v>
@@ -41637,7 +41622,7 @@
     </row>
     <row r="662" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A662" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B662" s="2" t="s">
         <v>45</v>
@@ -41699,7 +41684,7 @@
     </row>
     <row r="663" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A663" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B663" s="2" t="s">
         <v>47</v>
@@ -41761,7 +41746,7 @@
     </row>
     <row r="664" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A664" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B664" s="2" t="s">
         <v>49</v>
@@ -41823,7 +41808,7 @@
     </row>
     <row r="665" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A665" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B665" s="2" t="s">
         <v>51</v>
@@ -41885,7 +41870,7 @@
     </row>
     <row r="666" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A666" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B666" s="2" t="s">
         <v>53</v>
@@ -42753,7 +42738,7 @@
     </row>
     <row r="680" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A680" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B680" s="2" t="s">
         <v>45</v>
@@ -42815,7 +42800,7 @@
     </row>
     <row r="681" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B681" s="2" t="s">
         <v>47</v>
@@ -42877,7 +42862,7 @@
     </row>
     <row r="682" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B682" s="2" t="s">
         <v>49</v>
@@ -42939,7 +42924,7 @@
     </row>
     <row r="683" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B683" s="2" t="s">
         <v>51</v>
@@ -43001,7 +42986,7 @@
     </row>
     <row r="684" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B684" s="2" t="s">
         <v>53</v>
@@ -43869,7 +43854,7 @@
     </row>
     <row r="698" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A698" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B698" s="2" t="s">
         <v>45</v>
@@ -43931,7 +43916,7 @@
     </row>
     <row r="699" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A699" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B699" s="2" t="s">
         <v>47</v>
@@ -43993,7 +43978,7 @@
     </row>
     <row r="700" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B700" s="2" t="s">
         <v>49</v>
@@ -44055,7 +44040,7 @@
     </row>
     <row r="701" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A701" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B701" s="2" t="s">
         <v>51</v>
@@ -44117,7 +44102,7 @@
     </row>
     <row r="702" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A702" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B702" s="2" t="s">
         <v>53</v>
@@ -44985,7 +44970,7 @@
     </row>
     <row r="716" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A716" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B716" s="2" t="s">
         <v>45</v>
@@ -45047,7 +45032,7 @@
     </row>
     <row r="717" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A717" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B717" s="2" t="s">
         <v>47</v>
@@ -45109,7 +45094,7 @@
     </row>
     <row r="718" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A718" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B718" s="2" t="s">
         <v>49</v>
@@ -45171,7 +45156,7 @@
     </row>
     <row r="719" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A719" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B719" s="2" t="s">
         <v>51</v>
@@ -45233,7 +45218,7 @@
     </row>
     <row r="720" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A720" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B720" s="2" t="s">
         <v>53</v>
@@ -46101,7 +46086,7 @@
     </row>
     <row r="734" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A734" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B734" s="2" t="s">
         <v>45</v>
@@ -46163,7 +46148,7 @@
     </row>
     <row r="735" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A735" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B735" s="2" t="s">
         <v>47</v>
@@ -46225,7 +46210,7 @@
     </row>
     <row r="736" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A736" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B736" s="2" t="s">
         <v>49</v>
@@ -46287,7 +46272,7 @@
     </row>
     <row r="737" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A737" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B737" s="2" t="s">
         <v>51</v>
@@ -46349,7 +46334,7 @@
     </row>
     <row r="738" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A738" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B738" s="2" t="s">
         <v>53</v>
@@ -47217,7 +47202,7 @@
     </row>
     <row r="752" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A752" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B752" s="2" t="s">
         <v>45</v>
@@ -47279,7 +47264,7 @@
     </row>
     <row r="753" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A753" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B753" s="2" t="s">
         <v>47</v>
@@ -47341,7 +47326,7 @@
     </row>
     <row r="754" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A754" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B754" s="2" t="s">
         <v>49</v>
@@ -47403,7 +47388,7 @@
     </row>
     <row r="755" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A755" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B755" s="2" t="s">
         <v>51</v>
@@ -47465,7 +47450,7 @@
     </row>
     <row r="756" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A756" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B756" s="2" t="s">
         <v>53</v>
@@ -48333,7 +48318,7 @@
     </row>
     <row r="770" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A770" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B770" s="2" t="s">
         <v>45</v>
@@ -48395,7 +48380,7 @@
     </row>
     <row r="771" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A771" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B771" s="2" t="s">
         <v>47</v>
@@ -48457,7 +48442,7 @@
     </row>
     <row r="772" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A772" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B772" s="2" t="s">
         <v>49</v>
@@ -48519,7 +48504,7 @@
     </row>
     <row r="773" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A773" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B773" s="2" t="s">
         <v>51</v>
@@ -48581,7 +48566,7 @@
     </row>
     <row r="774" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A774" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B774" s="2" t="s">
         <v>53</v>
@@ -49449,7 +49434,7 @@
     </row>
     <row r="788" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A788" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B788" s="2" t="s">
         <v>45</v>
@@ -49511,7 +49496,7 @@
     </row>
     <row r="789" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A789" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B789" s="2" t="s">
         <v>47</v>
@@ -49573,7 +49558,7 @@
     </row>
     <row r="790" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A790" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B790" s="2" t="s">
         <v>49</v>
@@ -49635,7 +49620,7 @@
     </row>
     <row r="791" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A791" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B791" s="2" t="s">
         <v>51</v>
@@ -49697,7 +49682,7 @@
     </row>
     <row r="792" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A792" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B792" s="2" t="s">
         <v>53</v>
@@ -50565,7 +50550,7 @@
     </row>
     <row r="806" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A806" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B806" s="2" t="s">
         <v>45</v>
@@ -50627,7 +50612,7 @@
     </row>
     <row r="807" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A807" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B807" s="2" t="s">
         <v>47</v>
@@ -50689,7 +50674,7 @@
     </row>
     <row r="808" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A808" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B808" s="2" t="s">
         <v>49</v>
@@ -50751,7 +50736,7 @@
     </row>
     <row r="809" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A809" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B809" s="2" t="s">
         <v>51</v>
@@ -50813,7 +50798,7 @@
     </row>
     <row r="810" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A810" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B810" s="2" t="s">
         <v>53</v>
@@ -51681,7 +51666,7 @@
     </row>
     <row r="824" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A824" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B824" s="2" t="s">
         <v>45</v>
@@ -51743,7 +51728,7 @@
     </row>
     <row r="825" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A825" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B825" s="2" t="s">
         <v>47</v>
@@ -51805,7 +51790,7 @@
     </row>
     <row r="826" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A826" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B826" s="2" t="s">
         <v>49</v>
@@ -51867,7 +51852,7 @@
     </row>
     <row r="827" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A827" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B827" s="2" t="s">
         <v>51</v>
@@ -51929,7 +51914,7 @@
     </row>
     <row r="828" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A828" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B828" s="2" t="s">
         <v>53</v>
@@ -52797,7 +52782,7 @@
     </row>
     <row r="842" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A842" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B842" s="2" t="s">
         <v>45</v>
@@ -52859,7 +52844,7 @@
     </row>
     <row r="843" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A843" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B843" s="2" t="s">
         <v>47</v>
@@ -52921,7 +52906,7 @@
     </row>
     <row r="844" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A844" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B844" s="2" t="s">
         <v>49</v>
@@ -52983,7 +52968,7 @@
     </row>
     <row r="845" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A845" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B845" s="2" t="s">
         <v>51</v>
@@ -53045,7 +53030,7 @@
     </row>
     <row r="846" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A846" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B846" s="2" t="s">
         <v>53</v>
@@ -53913,7 +53898,7 @@
     </row>
     <row r="860" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A860" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B860" s="2" t="s">
         <v>45</v>
@@ -53975,7 +53960,7 @@
     </row>
     <row r="861" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A861" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B861" s="2" t="s">
         <v>47</v>
@@ -54037,7 +54022,7 @@
     </row>
     <row r="862" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A862" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B862" s="2" t="s">
         <v>49</v>
@@ -54099,7 +54084,7 @@
     </row>
     <row r="863" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A863" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B863" s="2" t="s">
         <v>51</v>
@@ -54161,7 +54146,7 @@
     </row>
     <row r="864" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A864" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B864" s="2" t="s">
         <v>53</v>
@@ -55029,7 +55014,7 @@
     </row>
     <row r="878" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A878" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B878" s="2" t="s">
         <v>45</v>
@@ -55091,7 +55076,7 @@
     </row>
     <row r="879" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A879" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B879" s="2" t="s">
         <v>47</v>
@@ -55153,7 +55138,7 @@
     </row>
     <row r="880" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A880" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B880" s="2" t="s">
         <v>49</v>
@@ -55215,7 +55200,7 @@
     </row>
     <row r="881" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A881" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B881" s="2" t="s">
         <v>51</v>
@@ -55277,7 +55262,7 @@
     </row>
     <row r="882" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A882" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B882" s="2" t="s">
         <v>53</v>
@@ -56145,7 +56130,7 @@
     </row>
     <row r="896" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A896" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B896" s="2" t="s">
         <v>45</v>
@@ -56207,7 +56192,7 @@
     </row>
     <row r="897" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A897" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B897" s="2" t="s">
         <v>47</v>
@@ -56269,7 +56254,7 @@
     </row>
     <row r="898" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A898" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B898" s="2" t="s">
         <v>49</v>
@@ -56331,7 +56316,7 @@
     </row>
     <row r="899" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A899" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B899" s="2" t="s">
         <v>51</v>
@@ -56393,7 +56378,7 @@
     </row>
     <row r="900" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A900" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B900" s="2" t="s">
         <v>53</v>
@@ -57261,7 +57246,7 @@
     </row>
     <row r="914" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A914" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B914" s="2" t="s">
         <v>45</v>
@@ -57323,7 +57308,7 @@
     </row>
     <row r="915" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A915" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B915" s="2" t="s">
         <v>47</v>
@@ -57385,7 +57370,7 @@
     </row>
     <row r="916" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A916" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B916" s="2" t="s">
         <v>49</v>
@@ -57447,7 +57432,7 @@
     </row>
     <row r="917" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A917" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B917" s="2" t="s">
         <v>51</v>
@@ -57509,7 +57494,7 @@
     </row>
     <row r="918" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A918" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B918" s="2" t="s">
         <v>53</v>
@@ -58377,7 +58362,7 @@
     </row>
     <row r="932" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A932" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B932" s="2" t="s">
         <v>45</v>
@@ -58439,7 +58424,7 @@
     </row>
     <row r="933" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A933" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B933" s="2" t="s">
         <v>47</v>
@@ -58501,7 +58486,7 @@
     </row>
     <row r="934" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A934" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B934" s="2" t="s">
         <v>49</v>
@@ -58563,7 +58548,7 @@
     </row>
     <row r="935" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A935" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B935" s="2" t="s">
         <v>51</v>
@@ -58625,7 +58610,7 @@
     </row>
     <row r="936" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A936" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B936" s="2" t="s">
         <v>53</v>
@@ -59493,7 +59478,7 @@
     </row>
     <row r="950" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A950" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B950" s="2" t="s">
         <v>45</v>
@@ -59555,7 +59540,7 @@
     </row>
     <row r="951" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A951" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B951" s="2" t="s">
         <v>47</v>
@@ -59617,7 +59602,7 @@
     </row>
     <row r="952" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A952" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B952" s="2" t="s">
         <v>49</v>
@@ -59679,7 +59664,7 @@
     </row>
     <row r="953" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A953" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B953" s="2" t="s">
         <v>51</v>
@@ -59741,7 +59726,7 @@
     </row>
     <row r="954" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A954" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B954" s="2" t="s">
         <v>53</v>
@@ -60609,7 +60594,7 @@
     </row>
     <row r="968" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A968" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B968" s="2" t="s">
         <v>45</v>
@@ -60671,7 +60656,7 @@
     </row>
     <row r="969" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A969" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B969" s="2" t="s">
         <v>47</v>
@@ -60733,7 +60718,7 @@
     </row>
     <row r="970" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A970" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B970" s="2" t="s">
         <v>49</v>
@@ -60795,7 +60780,7 @@
     </row>
     <row r="971" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A971" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B971" s="2" t="s">
         <v>51</v>
@@ -60857,7 +60842,7 @@
     </row>
     <row r="972" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A972" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B972" s="2" t="s">
         <v>53</v>
@@ -61725,7 +61710,7 @@
     </row>
     <row r="986" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A986" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B986" s="2" t="s">
         <v>45</v>
@@ -61787,7 +61772,7 @@
     </row>
     <row r="987" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A987" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B987" s="2" t="s">
         <v>47</v>
@@ -61849,7 +61834,7 @@
     </row>
     <row r="988" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A988" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B988" s="2" t="s">
         <v>49</v>
@@ -61911,7 +61896,7 @@
     </row>
     <row r="989" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A989" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B989" s="2" t="s">
         <v>51</v>
@@ -61973,7 +61958,7 @@
     </row>
     <row r="990" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A990" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B990" s="2" t="s">
         <v>53</v>
@@ -62841,7 +62826,7 @@
     </row>
     <row r="1004" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1004" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1004" s="2" t="s">
         <v>45</v>
@@ -62903,7 +62888,7 @@
     </row>
     <row r="1005" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1005" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1005" s="2" t="s">
         <v>47</v>
@@ -62965,7 +62950,7 @@
     </row>
     <row r="1006" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1006" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1006" s="2" t="s">
         <v>49</v>
@@ -63027,7 +63012,7 @@
     </row>
     <row r="1007" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1007" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1007" s="2" t="s">
         <v>51</v>
@@ -63089,7 +63074,7 @@
     </row>
     <row r="1008" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1008" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1008" s="2" t="s">
         <v>53</v>
@@ -63957,7 +63942,7 @@
     </row>
     <row r="1022" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1022" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1022" s="2" t="s">
         <v>45</v>
@@ -64019,7 +64004,7 @@
     </row>
     <row r="1023" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1023" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1023" s="2" t="s">
         <v>47</v>
@@ -64081,7 +64066,7 @@
     </row>
     <row r="1024" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1024" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1024" s="2" t="s">
         <v>49</v>
@@ -64143,7 +64128,7 @@
     </row>
     <row r="1025" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1025" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1025" s="2" t="s">
         <v>51</v>
@@ -64205,7 +64190,7 @@
     </row>
     <row r="1026" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1026" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1026" s="2" t="s">
         <v>53</v>
@@ -64380,7 +64365,7 @@
         <v>0.05</v>
       </c>
       <c r="R1028" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1028" s="2" t="s">
         <v>23</v>
@@ -64442,7 +64427,7 @@
         <v>0.05</v>
       </c>
       <c r="R1029" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1029" s="2" t="s">
         <v>23</v>
@@ -64504,7 +64489,7 @@
         <v>0.05</v>
       </c>
       <c r="R1030" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1030" s="2" t="s">
         <v>23</v>
@@ -64566,7 +64551,7 @@
         <v>0.05</v>
       </c>
       <c r="R1031" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1031" s="2" t="s">
         <v>23</v>
@@ -64628,7 +64613,7 @@
         <v>0.05</v>
       </c>
       <c r="R1032" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1032" s="2" t="s">
         <v>23</v>
@@ -64690,7 +64675,7 @@
         <v>0.05</v>
       </c>
       <c r="R1033" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1033" s="2" t="s">
         <v>23</v>
@@ -64752,7 +64737,7 @@
         <v>0.05</v>
       </c>
       <c r="R1034" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1034" s="2" t="s">
         <v>23</v>
@@ -64814,7 +64799,7 @@
         <v>0.05</v>
       </c>
       <c r="R1035" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1035" s="2" t="s">
         <v>23</v>
@@ -64876,7 +64861,7 @@
         <v>0.05</v>
       </c>
       <c r="R1036" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1036" s="2" t="s">
         <v>23</v>
@@ -64938,7 +64923,7 @@
         <v>0.05</v>
       </c>
       <c r="R1037" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1037" s="2" t="s">
         <v>23</v>
@@ -65000,7 +64985,7 @@
         <v>0.05</v>
       </c>
       <c r="R1038" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1038" s="2" t="s">
         <v>23</v>
@@ -65062,7 +65047,7 @@
         <v>0.05</v>
       </c>
       <c r="R1039" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1039" s="2" t="s">
         <v>23</v>
@@ -65073,7 +65058,7 @@
     </row>
     <row r="1040" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1040" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1040" s="2" t="s">
         <v>45</v>
@@ -65124,7 +65109,7 @@
         <v>0.05</v>
       </c>
       <c r="R1040" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1040" s="2" t="s">
         <v>23</v>
@@ -65135,7 +65120,7 @@
     </row>
     <row r="1041" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1041" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1041" s="2" t="s">
         <v>47</v>
@@ -65186,7 +65171,7 @@
         <v>0.05</v>
       </c>
       <c r="R1041" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1041" s="2" t="s">
         <v>23</v>
@@ -65197,7 +65182,7 @@
     </row>
     <row r="1042" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1042" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1042" s="2" t="s">
         <v>49</v>
@@ -65248,7 +65233,7 @@
         <v>0.05</v>
       </c>
       <c r="R1042" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1042" s="2" t="s">
         <v>23</v>
@@ -65259,7 +65244,7 @@
     </row>
     <row r="1043" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1043" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1043" s="2" t="s">
         <v>51</v>
@@ -65310,7 +65295,7 @@
         <v>0.05</v>
       </c>
       <c r="R1043" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1043" s="2" t="s">
         <v>23</v>
@@ -65321,7 +65306,7 @@
     </row>
     <row r="1044" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1044" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1044" s="2" t="s">
         <v>53</v>
@@ -65372,7 +65357,7 @@
         <v>0.05</v>
       </c>
       <c r="R1044" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1044" s="2" t="s">
         <v>23</v>
@@ -65434,7 +65419,7 @@
         <v>0.05</v>
       </c>
       <c r="R1045" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1045" s="2" t="s">
         <v>23</v>
@@ -65496,7 +65481,7 @@
         <v>0.05</v>
       </c>
       <c r="R1046" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1046" s="2" t="s">
         <v>23</v>
@@ -65558,7 +65543,7 @@
         <v>0.05</v>
       </c>
       <c r="R1047" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1047" s="2" t="s">
         <v>23</v>
@@ -65620,7 +65605,7 @@
         <v>0.05</v>
       </c>
       <c r="R1048" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1048" s="2" t="s">
         <v>23</v>
@@ -65682,7 +65667,7 @@
         <v>0.05</v>
       </c>
       <c r="R1049" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1049" s="2" t="s">
         <v>23</v>
@@ -65744,7 +65729,7 @@
         <v>0.05</v>
       </c>
       <c r="R1050" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1050" s="2" t="s">
         <v>23</v>
@@ -65806,7 +65791,7 @@
         <v>0.05</v>
       </c>
       <c r="R1051" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1051" s="2" t="s">
         <v>23</v>
@@ -65868,7 +65853,7 @@
         <v>0.05</v>
       </c>
       <c r="R1052" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1052" s="2" t="s">
         <v>23</v>
@@ -65930,7 +65915,7 @@
         <v>0.05</v>
       </c>
       <c r="R1053" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1053" s="2" t="s">
         <v>23</v>
@@ -65992,7 +65977,7 @@
         <v>0.05</v>
       </c>
       <c r="R1054" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1054" s="2" t="s">
         <v>23</v>
@@ -66054,7 +66039,7 @@
         <v>0.05</v>
       </c>
       <c r="R1055" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1055" s="2" t="s">
         <v>23</v>
@@ -66116,7 +66101,7 @@
         <v>0.05</v>
       </c>
       <c r="R1056" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1056" s="2" t="s">
         <v>23</v>
@@ -66178,7 +66163,7 @@
         <v>0.05</v>
       </c>
       <c r="R1057" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1057" s="2" t="s">
         <v>23</v>
@@ -66189,7 +66174,7 @@
     </row>
     <row r="1058" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1058" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1058" s="2" t="s">
         <v>45</v>
@@ -66240,7 +66225,7 @@
         <v>0.05</v>
       </c>
       <c r="R1058" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1058" s="2" t="s">
         <v>23</v>
@@ -66251,7 +66236,7 @@
     </row>
     <row r="1059" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1059" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1059" s="2" t="s">
         <v>47</v>
@@ -66302,7 +66287,7 @@
         <v>0.05</v>
       </c>
       <c r="R1059" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1059" s="2" t="s">
         <v>23</v>
@@ -66313,7 +66298,7 @@
     </row>
     <row r="1060" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1060" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1060" s="2" t="s">
         <v>49</v>
@@ -66364,7 +66349,7 @@
         <v>0.05</v>
       </c>
       <c r="R1060" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1060" s="2" t="s">
         <v>23</v>
@@ -66375,7 +66360,7 @@
     </row>
     <row r="1061" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1061" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1061" s="2" t="s">
         <v>51</v>
@@ -66426,7 +66411,7 @@
         <v>0.05</v>
       </c>
       <c r="R1061" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1061" s="2" t="s">
         <v>23</v>
@@ -66437,7 +66422,7 @@
     </row>
     <row r="1062" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1062" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1062" s="2" t="s">
         <v>53</v>
@@ -66488,7 +66473,7 @@
         <v>0.05</v>
       </c>
       <c r="R1062" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1062" s="2" t="s">
         <v>23</v>
@@ -66550,7 +66535,7 @@
         <v>0.05</v>
       </c>
       <c r="R1063" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1063" s="2" t="s">
         <v>23</v>
@@ -66612,7 +66597,7 @@
         <v>0.05</v>
       </c>
       <c r="R1064" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1064" s="2" t="s">
         <v>23</v>
@@ -66674,7 +66659,7 @@
         <v>0.05</v>
       </c>
       <c r="R1065" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1065" s="2" t="s">
         <v>23</v>
@@ -66736,7 +66721,7 @@
         <v>0.05</v>
       </c>
       <c r="R1066" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1066" s="2" t="s">
         <v>23</v>
@@ -66798,7 +66783,7 @@
         <v>0.05</v>
       </c>
       <c r="R1067" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1067" s="2" t="s">
         <v>23</v>
@@ -66860,7 +66845,7 @@
         <v>0.05</v>
       </c>
       <c r="R1068" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1068" s="2" t="s">
         <v>23</v>
@@ -66922,7 +66907,7 @@
         <v>0.05</v>
       </c>
       <c r="R1069" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1069" s="2" t="s">
         <v>23</v>
@@ -66984,7 +66969,7 @@
         <v>0.05</v>
       </c>
       <c r="R1070" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1070" s="2" t="s">
         <v>23</v>
@@ -67046,7 +67031,7 @@
         <v>0.05</v>
       </c>
       <c r="R1071" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1071" s="2" t="s">
         <v>23</v>
@@ -67108,7 +67093,7 @@
         <v>0.05</v>
       </c>
       <c r="R1072" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1072" s="2" t="s">
         <v>23</v>
@@ -67170,7 +67155,7 @@
         <v>0.05</v>
       </c>
       <c r="R1073" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1073" s="2" t="s">
         <v>23</v>
@@ -67232,7 +67217,7 @@
         <v>0.05</v>
       </c>
       <c r="R1074" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1074" s="2" t="s">
         <v>23</v>
@@ -67294,7 +67279,7 @@
         <v>0.05</v>
       </c>
       <c r="R1075" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1075" s="2" t="s">
         <v>23</v>
@@ -67305,7 +67290,7 @@
     </row>
     <row r="1076" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1076" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1076" s="2" t="s">
         <v>45</v>
@@ -67356,7 +67341,7 @@
         <v>0.05</v>
       </c>
       <c r="R1076" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1076" s="2" t="s">
         <v>23</v>
@@ -67367,7 +67352,7 @@
     </row>
     <row r="1077" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1077" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1077" s="2" t="s">
         <v>47</v>
@@ -67418,7 +67403,7 @@
         <v>0.05</v>
       </c>
       <c r="R1077" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1077" s="2" t="s">
         <v>23</v>
@@ -67429,7 +67414,7 @@
     </row>
     <row r="1078" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1078" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1078" s="2" t="s">
         <v>49</v>
@@ -67480,7 +67465,7 @@
         <v>0.05</v>
       </c>
       <c r="R1078" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1078" s="2" t="s">
         <v>23</v>
@@ -67491,7 +67476,7 @@
     </row>
     <row r="1079" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1079" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1079" s="2" t="s">
         <v>51</v>
@@ -67542,7 +67527,7 @@
         <v>0.05</v>
       </c>
       <c r="R1079" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1079" s="2" t="s">
         <v>23</v>
@@ -67553,7 +67538,7 @@
     </row>
     <row r="1080" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1080" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1080" s="2" t="s">
         <v>53</v>
@@ -67604,7 +67589,7 @@
         <v>0.05</v>
       </c>
       <c r="R1080" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1080" s="2" t="s">
         <v>23</v>
@@ -67666,7 +67651,7 @@
         <v>0.05</v>
       </c>
       <c r="R1081" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1081" s="2" t="s">
         <v>23</v>
@@ -67728,7 +67713,7 @@
         <v>0.05</v>
       </c>
       <c r="R1082" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1082" s="2" t="s">
         <v>23</v>
@@ -67790,7 +67775,7 @@
         <v>0.05</v>
       </c>
       <c r="R1083" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1083" s="2" t="s">
         <v>23</v>
@@ -67852,7 +67837,7 @@
         <v>0.05</v>
       </c>
       <c r="R1084" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1084" s="2" t="s">
         <v>23</v>
@@ -67914,7 +67899,7 @@
         <v>0.05</v>
       </c>
       <c r="R1085" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1085" s="2" t="s">
         <v>23</v>
@@ -67976,7 +67961,7 @@
         <v>0.05</v>
       </c>
       <c r="R1086" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1086" s="2" t="s">
         <v>23</v>
@@ -68038,7 +68023,7 @@
         <v>0.05</v>
       </c>
       <c r="R1087" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1087" s="2" t="s">
         <v>23</v>
@@ -68100,7 +68085,7 @@
         <v>0.05</v>
       </c>
       <c r="R1088" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1088" s="2" t="s">
         <v>23</v>
@@ -68162,7 +68147,7 @@
         <v>0.05</v>
       </c>
       <c r="R1089" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1089" s="2" t="s">
         <v>23</v>
@@ -68224,7 +68209,7 @@
         <v>0.05</v>
       </c>
       <c r="R1090" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1090" s="2" t="s">
         <v>23</v>
@@ -68286,7 +68271,7 @@
         <v>0.05</v>
       </c>
       <c r="R1091" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1091" s="2" t="s">
         <v>23</v>
@@ -68348,7 +68333,7 @@
         <v>0.05</v>
       </c>
       <c r="R1092" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1092" s="2" t="s">
         <v>23</v>
@@ -68410,7 +68395,7 @@
         <v>0.05</v>
       </c>
       <c r="R1093" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1093" s="2" t="s">
         <v>23</v>
@@ -68421,7 +68406,7 @@
     </row>
     <row r="1094" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1094" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1094" s="2" t="s">
         <v>45</v>
@@ -68472,7 +68457,7 @@
         <v>0.05</v>
       </c>
       <c r="R1094" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1094" s="2" t="s">
         <v>23</v>
@@ -68483,7 +68468,7 @@
     </row>
     <row r="1095" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1095" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1095" s="2" t="s">
         <v>47</v>
@@ -68534,7 +68519,7 @@
         <v>0.05</v>
       </c>
       <c r="R1095" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1095" s="2" t="s">
         <v>23</v>
@@ -68545,7 +68530,7 @@
     </row>
     <row r="1096" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1096" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1096" s="2" t="s">
         <v>49</v>
@@ -68596,7 +68581,7 @@
         <v>0.05</v>
       </c>
       <c r="R1096" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1096" s="2" t="s">
         <v>23</v>
@@ -68607,7 +68592,7 @@
     </row>
     <row r="1097" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1097" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1097" s="2" t="s">
         <v>51</v>
@@ -68658,7 +68643,7 @@
         <v>0.05</v>
       </c>
       <c r="R1097" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1097" s="2" t="s">
         <v>23</v>
@@ -68669,7 +68654,7 @@
     </row>
     <row r="1098" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1098" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1098" s="2" t="s">
         <v>53</v>
@@ -68720,7 +68705,7 @@
         <v>0.05</v>
       </c>
       <c r="R1098" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1098" s="2" t="s">
         <v>23</v>
@@ -68782,7 +68767,7 @@
         <v>0.05</v>
       </c>
       <c r="R1099" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1099" s="2" t="s">
         <v>23</v>
@@ -68844,7 +68829,7 @@
         <v>0.05</v>
       </c>
       <c r="R1100" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1100" s="2" t="s">
         <v>23</v>
@@ -68906,7 +68891,7 @@
         <v>0.05</v>
       </c>
       <c r="R1101" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1101" s="2" t="s">
         <v>23</v>
@@ -68968,7 +68953,7 @@
         <v>0.05</v>
       </c>
       <c r="R1102" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1102" s="2" t="s">
         <v>23</v>
@@ -69030,7 +69015,7 @@
         <v>0.05</v>
       </c>
       <c r="R1103" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1103" s="2" t="s">
         <v>23</v>
@@ -69092,7 +69077,7 @@
         <v>0.05</v>
       </c>
       <c r="R1104" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1104" s="2" t="s">
         <v>23</v>
@@ -69154,7 +69139,7 @@
         <v>0.05</v>
       </c>
       <c r="R1105" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1105" s="2" t="s">
         <v>23</v>
@@ -69216,7 +69201,7 @@
         <v>0.05</v>
       </c>
       <c r="R1106" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1106" s="2" t="s">
         <v>23</v>
@@ -69278,7 +69263,7 @@
         <v>0.05</v>
       </c>
       <c r="R1107" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1107" s="2" t="s">
         <v>23</v>
@@ -69340,7 +69325,7 @@
         <v>0.05</v>
       </c>
       <c r="R1108" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1108" s="2" t="s">
         <v>23</v>
@@ -69402,7 +69387,7 @@
         <v>0.05</v>
       </c>
       <c r="R1109" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1109" s="2" t="s">
         <v>23</v>
@@ -69464,7 +69449,7 @@
         <v>0.05</v>
       </c>
       <c r="R1110" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1110" s="2" t="s">
         <v>23</v>
@@ -69526,7 +69511,7 @@
         <v>0.05</v>
       </c>
       <c r="R1111" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1111" s="2" t="s">
         <v>23</v>
@@ -69537,7 +69522,7 @@
     </row>
     <row r="1112" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1112" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1112" s="2" t="s">
         <v>45</v>
@@ -69588,7 +69573,7 @@
         <v>0.05</v>
       </c>
       <c r="R1112" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1112" s="2" t="s">
         <v>23</v>
@@ -69599,7 +69584,7 @@
     </row>
     <row r="1113" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1113" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1113" s="2" t="s">
         <v>47</v>
@@ -69650,7 +69635,7 @@
         <v>0.05</v>
       </c>
       <c r="R1113" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1113" s="2" t="s">
         <v>23</v>
@@ -69661,7 +69646,7 @@
     </row>
     <row r="1114" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1114" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1114" s="2" t="s">
         <v>49</v>
@@ -69712,7 +69697,7 @@
         <v>0.05</v>
       </c>
       <c r="R1114" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1114" s="2" t="s">
         <v>23</v>
@@ -69723,7 +69708,7 @@
     </row>
     <row r="1115" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1115" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1115" s="2" t="s">
         <v>51</v>
@@ -69774,7 +69759,7 @@
         <v>0.05</v>
       </c>
       <c r="R1115" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1115" s="2" t="s">
         <v>23</v>
@@ -69785,7 +69770,7 @@
     </row>
     <row r="1116" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1116" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1116" s="2" t="s">
         <v>53</v>
@@ -69836,7 +69821,7 @@
         <v>0.05</v>
       </c>
       <c r="R1116" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1116" s="2" t="s">
         <v>23</v>
@@ -69898,7 +69883,7 @@
         <v>0.05</v>
       </c>
       <c r="R1117" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1117" s="2" t="s">
         <v>23</v>
@@ -69960,7 +69945,7 @@
         <v>0.01</v>
       </c>
       <c r="R1118" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1118" s="2" t="s">
         <v>23</v>
@@ -70022,7 +70007,7 @@
         <v>0.01</v>
       </c>
       <c r="R1119" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1119" s="2" t="s">
         <v>23</v>
@@ -70084,7 +70069,7 @@
         <v>0.01</v>
       </c>
       <c r="R1120" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1120" s="2" t="s">
         <v>23</v>
@@ -70146,7 +70131,7 @@
         <v>0.01</v>
       </c>
       <c r="R1121" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1121" s="2" t="s">
         <v>23</v>
@@ -70208,7 +70193,7 @@
         <v>0.01</v>
       </c>
       <c r="R1122" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1122" s="2" t="s">
         <v>23</v>
@@ -70270,7 +70255,7 @@
         <v>0.01</v>
       </c>
       <c r="R1123" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1123" s="2" t="s">
         <v>23</v>
@@ -70332,7 +70317,7 @@
         <v>0.01</v>
       </c>
       <c r="R1124" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1124" s="2" t="s">
         <v>23</v>
@@ -70394,7 +70379,7 @@
         <v>0.01</v>
       </c>
       <c r="R1125" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1125" s="2" t="s">
         <v>23</v>
@@ -70456,7 +70441,7 @@
         <v>0.01</v>
       </c>
       <c r="R1126" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1126" s="2" t="s">
         <v>23</v>
@@ -70518,7 +70503,7 @@
         <v>0.01</v>
       </c>
       <c r="R1127" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1127" s="2" t="s">
         <v>23</v>
@@ -70580,7 +70565,7 @@
         <v>0.01</v>
       </c>
       <c r="R1128" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1128" s="2" t="s">
         <v>23</v>
@@ -70642,7 +70627,7 @@
         <v>0.01</v>
       </c>
       <c r="R1129" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1129" s="2" t="s">
         <v>23</v>
@@ -70653,7 +70638,7 @@
     </row>
     <row r="1130" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1130" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1130" s="2" t="s">
         <v>45</v>
@@ -70704,7 +70689,7 @@
         <v>0.01</v>
       </c>
       <c r="R1130" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1130" s="2" t="s">
         <v>23</v>
@@ -70715,7 +70700,7 @@
     </row>
     <row r="1131" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1131" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1131" s="2" t="s">
         <v>47</v>
@@ -70766,7 +70751,7 @@
         <v>0.01</v>
       </c>
       <c r="R1131" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1131" s="2" t="s">
         <v>23</v>
@@ -70777,7 +70762,7 @@
     </row>
     <row r="1132" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1132" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1132" s="2" t="s">
         <v>49</v>
@@ -70828,7 +70813,7 @@
         <v>0.01</v>
       </c>
       <c r="R1132" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1132" s="2" t="s">
         <v>23</v>
@@ -70839,7 +70824,7 @@
     </row>
     <row r="1133" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1133" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1133" s="2" t="s">
         <v>51</v>
@@ -70890,7 +70875,7 @@
         <v>0.01</v>
       </c>
       <c r="R1133" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1133" s="2" t="s">
         <v>23</v>
@@ -70901,7 +70886,7 @@
     </row>
     <row r="1134" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1134" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1134" s="2" t="s">
         <v>53</v>
@@ -70952,7 +70937,7 @@
         <v>0.01</v>
       </c>
       <c r="R1134" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1134" s="2" t="s">
         <v>23</v>
@@ -71014,7 +70999,7 @@
         <v>0.01</v>
       </c>
       <c r="R1135" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1135" s="2" t="s">
         <v>23</v>
@@ -71076,7 +71061,7 @@
         <v>0.01</v>
       </c>
       <c r="R1136" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1136" s="2" t="s">
         <v>23</v>
@@ -71138,7 +71123,7 @@
         <v>0.01</v>
       </c>
       <c r="R1137" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1137" s="2" t="s">
         <v>23</v>
@@ -71200,7 +71185,7 @@
         <v>0.01</v>
       </c>
       <c r="R1138" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1138" s="2" t="s">
         <v>23</v>
@@ -71262,7 +71247,7 @@
         <v>0.01</v>
       </c>
       <c r="R1139" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1139" s="2" t="s">
         <v>23</v>
@@ -71324,7 +71309,7 @@
         <v>0.01</v>
       </c>
       <c r="R1140" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1140" s="2" t="s">
         <v>23</v>
@@ -71386,7 +71371,7 @@
         <v>0.01</v>
       </c>
       <c r="R1141" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1141" s="2" t="s">
         <v>23</v>
@@ -71448,7 +71433,7 @@
         <v>0.01</v>
       </c>
       <c r="R1142" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1142" s="2" t="s">
         <v>23</v>
@@ -71510,7 +71495,7 @@
         <v>0.01</v>
       </c>
       <c r="R1143" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1143" s="2" t="s">
         <v>23</v>
@@ -71572,7 +71557,7 @@
         <v>0.01</v>
       </c>
       <c r="R1144" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1144" s="2" t="s">
         <v>23</v>
@@ -71634,7 +71619,7 @@
         <v>0.01</v>
       </c>
       <c r="R1145" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1145" s="2" t="s">
         <v>23</v>
@@ -71696,7 +71681,7 @@
         <v>0.01</v>
       </c>
       <c r="R1146" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1146" s="2" t="s">
         <v>23</v>
@@ -71758,7 +71743,7 @@
         <v>0.01</v>
       </c>
       <c r="R1147" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1147" s="2" t="s">
         <v>23</v>
@@ -71769,7 +71754,7 @@
     </row>
     <row r="1148" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1148" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1148" s="2" t="s">
         <v>45</v>
@@ -71820,7 +71805,7 @@
         <v>0.01</v>
       </c>
       <c r="R1148" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1148" s="2" t="s">
         <v>23</v>
@@ -71831,7 +71816,7 @@
     </row>
     <row r="1149" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1149" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1149" s="2" t="s">
         <v>47</v>
@@ -71882,7 +71867,7 @@
         <v>0.01</v>
       </c>
       <c r="R1149" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1149" s="2" t="s">
         <v>23</v>
@@ -71893,7 +71878,7 @@
     </row>
     <row r="1150" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1150" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1150" s="2" t="s">
         <v>49</v>
@@ -71944,7 +71929,7 @@
         <v>0.01</v>
       </c>
       <c r="R1150" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1150" s="2" t="s">
         <v>23</v>
@@ -71955,7 +71940,7 @@
     </row>
     <row r="1151" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1151" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1151" s="2" t="s">
         <v>51</v>
@@ -72006,7 +71991,7 @@
         <v>0.01</v>
       </c>
       <c r="R1151" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1151" s="2" t="s">
         <v>23</v>
@@ -72017,7 +72002,7 @@
     </row>
     <row r="1152" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1152" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1152" s="2" t="s">
         <v>53</v>
@@ -72068,7 +72053,7 @@
         <v>0.01</v>
       </c>
       <c r="R1152" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1152" s="2" t="s">
         <v>23</v>
@@ -72130,7 +72115,7 @@
         <v>0.01</v>
       </c>
       <c r="R1153" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1153" s="2" t="s">
         <v>23</v>
@@ -72192,7 +72177,7 @@
         <v>0.01</v>
       </c>
       <c r="R1154" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1154" s="2" t="s">
         <v>23</v>
@@ -72254,7 +72239,7 @@
         <v>0.01</v>
       </c>
       <c r="R1155" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1155" s="2" t="s">
         <v>23</v>
@@ -72316,7 +72301,7 @@
         <v>0.01</v>
       </c>
       <c r="R1156" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1156" s="2" t="s">
         <v>23</v>
@@ -72378,7 +72363,7 @@
         <v>0.01</v>
       </c>
       <c r="R1157" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1157" s="2" t="s">
         <v>23</v>
@@ -72440,7 +72425,7 @@
         <v>0.01</v>
       </c>
       <c r="R1158" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1158" s="2" t="s">
         <v>23</v>
@@ -72502,7 +72487,7 @@
         <v>0.01</v>
       </c>
       <c r="R1159" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1159" s="2" t="s">
         <v>23</v>
@@ -72564,7 +72549,7 @@
         <v>0.01</v>
       </c>
       <c r="R1160" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1160" s="2" t="s">
         <v>23</v>
@@ -72626,7 +72611,7 @@
         <v>0.01</v>
       </c>
       <c r="R1161" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1161" s="2" t="s">
         <v>23</v>
@@ -72688,7 +72673,7 @@
         <v>0.01</v>
       </c>
       <c r="R1162" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1162" s="2" t="s">
         <v>23</v>
@@ -72750,7 +72735,7 @@
         <v>0.01</v>
       </c>
       <c r="R1163" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1163" s="2" t="s">
         <v>23</v>
@@ -72812,7 +72797,7 @@
         <v>0.01</v>
       </c>
       <c r="R1164" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1164" s="2" t="s">
         <v>23</v>
@@ -72874,7 +72859,7 @@
         <v>0.01</v>
       </c>
       <c r="R1165" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1165" s="2" t="s">
         <v>23</v>
@@ -72885,7 +72870,7 @@
     </row>
     <row r="1166" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1166" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1166" s="2" t="s">
         <v>45</v>
@@ -72936,7 +72921,7 @@
         <v>0.01</v>
       </c>
       <c r="R1166" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1166" s="2" t="s">
         <v>23</v>
@@ -72947,7 +72932,7 @@
     </row>
     <row r="1167" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1167" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1167" s="2" t="s">
         <v>47</v>
@@ -72998,7 +72983,7 @@
         <v>0.01</v>
       </c>
       <c r="R1167" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1167" s="2" t="s">
         <v>23</v>
@@ -73009,7 +72994,7 @@
     </row>
     <row r="1168" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1168" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1168" s="2" t="s">
         <v>49</v>
@@ -73060,7 +73045,7 @@
         <v>0.01</v>
       </c>
       <c r="R1168" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1168" s="2" t="s">
         <v>23</v>
@@ -73071,7 +73056,7 @@
     </row>
     <row r="1169" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1169" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1169" s="2" t="s">
         <v>51</v>
@@ -73122,7 +73107,7 @@
         <v>0.01</v>
       </c>
       <c r="R1169" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1169" s="2" t="s">
         <v>23</v>
@@ -73133,7 +73118,7 @@
     </row>
     <row r="1170" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1170" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1170" s="2" t="s">
         <v>53</v>
@@ -73184,7 +73169,7 @@
         <v>0.01</v>
       </c>
       <c r="R1170" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1170" s="2" t="s">
         <v>23</v>
@@ -73246,7 +73231,7 @@
         <v>0.01</v>
       </c>
       <c r="R1171" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1171" s="2" t="s">
         <v>23</v>
@@ -73308,7 +73293,7 @@
         <v>0.1</v>
       </c>
       <c r="R1172" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1172" s="2" t="s">
         <v>23</v>
@@ -73370,7 +73355,7 @@
         <v>0.1</v>
       </c>
       <c r="R1173" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1173" s="2" t="s">
         <v>23</v>
@@ -73432,7 +73417,7 @@
         <v>0.1</v>
       </c>
       <c r="R1174" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1174" s="2" t="s">
         <v>23</v>
@@ -73494,7 +73479,7 @@
         <v>0.1</v>
       </c>
       <c r="R1175" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1175" s="2" t="s">
         <v>23</v>
@@ -73556,7 +73541,7 @@
         <v>0.1</v>
       </c>
       <c r="R1176" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1176" s="2" t="s">
         <v>23</v>
@@ -73618,7 +73603,7 @@
         <v>0.1</v>
       </c>
       <c r="R1177" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1177" s="2" t="s">
         <v>23</v>
@@ -73680,7 +73665,7 @@
         <v>0.1</v>
       </c>
       <c r="R1178" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1178" s="2" t="s">
         <v>23</v>
@@ -73742,7 +73727,7 @@
         <v>0.1</v>
       </c>
       <c r="R1179" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1179" s="2" t="s">
         <v>23</v>
@@ -73804,7 +73789,7 @@
         <v>0.1</v>
       </c>
       <c r="R1180" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1180" s="2" t="s">
         <v>23</v>
@@ -73866,7 +73851,7 @@
         <v>0.1</v>
       </c>
       <c r="R1181" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1181" s="2" t="s">
         <v>23</v>
@@ -73928,7 +73913,7 @@
         <v>0.1</v>
       </c>
       <c r="R1182" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1182" s="2" t="s">
         <v>23</v>
@@ -73990,7 +73975,7 @@
         <v>0.1</v>
       </c>
       <c r="R1183" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1183" s="2" t="s">
         <v>23</v>
@@ -74001,7 +73986,7 @@
     </row>
     <row r="1184" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1184" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1184" s="2" t="s">
         <v>45</v>
@@ -74052,7 +74037,7 @@
         <v>0.1</v>
       </c>
       <c r="R1184" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1184" s="2" t="s">
         <v>23</v>
@@ -74063,7 +74048,7 @@
     </row>
     <row r="1185" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1185" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1185" s="2" t="s">
         <v>47</v>
@@ -74114,7 +74099,7 @@
         <v>0.1</v>
       </c>
       <c r="R1185" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1185" s="2" t="s">
         <v>23</v>
@@ -74125,7 +74110,7 @@
     </row>
     <row r="1186" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1186" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1186" s="2" t="s">
         <v>49</v>
@@ -74176,7 +74161,7 @@
         <v>0.1</v>
       </c>
       <c r="R1186" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1186" s="2" t="s">
         <v>23</v>
@@ -74187,7 +74172,7 @@
     </row>
     <row r="1187" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1187" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1187" s="2" t="s">
         <v>51</v>
@@ -74238,7 +74223,7 @@
         <v>0.1</v>
       </c>
       <c r="R1187" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1187" s="2" t="s">
         <v>23</v>
@@ -74249,7 +74234,7 @@
     </row>
     <row r="1188" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1188" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1188" s="2" t="s">
         <v>53</v>
@@ -74300,7 +74285,7 @@
         <v>0.1</v>
       </c>
       <c r="R1188" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1188" s="2" t="s">
         <v>23</v>
@@ -74362,7 +74347,7 @@
         <v>0.1</v>
       </c>
       <c r="R1189" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1189" s="2" t="s">
         <v>23</v>
@@ -74424,7 +74409,7 @@
         <v>0.1</v>
       </c>
       <c r="R1190" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1190" s="2" t="s">
         <v>23</v>
@@ -74486,7 +74471,7 @@
         <v>0.1</v>
       </c>
       <c r="R1191" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1191" s="2" t="s">
         <v>23</v>
@@ -74548,7 +74533,7 @@
         <v>0.1</v>
       </c>
       <c r="R1192" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1192" s="2" t="s">
         <v>23</v>
@@ -74610,7 +74595,7 @@
         <v>0.1</v>
       </c>
       <c r="R1193" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1193" s="2" t="s">
         <v>23</v>
@@ -74672,7 +74657,7 @@
         <v>0.1</v>
       </c>
       <c r="R1194" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1194" s="2" t="s">
         <v>23</v>
@@ -74734,7 +74719,7 @@
         <v>0.1</v>
       </c>
       <c r="R1195" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1195" s="2" t="s">
         <v>23</v>
@@ -74796,7 +74781,7 @@
         <v>0.1</v>
       </c>
       <c r="R1196" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1196" s="2" t="s">
         <v>23</v>
@@ -74858,7 +74843,7 @@
         <v>0.1</v>
       </c>
       <c r="R1197" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1197" s="2" t="s">
         <v>23</v>
@@ -74920,7 +74905,7 @@
         <v>0.1</v>
       </c>
       <c r="R1198" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1198" s="2" t="s">
         <v>23</v>
@@ -74982,7 +74967,7 @@
         <v>0.1</v>
       </c>
       <c r="R1199" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1199" s="2" t="s">
         <v>23</v>
@@ -75044,7 +75029,7 @@
         <v>0.1</v>
       </c>
       <c r="R1200" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1200" s="2" t="s">
         <v>23</v>
@@ -75106,7 +75091,7 @@
         <v>0.1</v>
       </c>
       <c r="R1201" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1201" s="2" t="s">
         <v>23</v>
@@ -75117,7 +75102,7 @@
     </row>
     <row r="1202" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1202" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1202" s="2" t="s">
         <v>45</v>
@@ -75168,7 +75153,7 @@
         <v>0.1</v>
       </c>
       <c r="R1202" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1202" s="2" t="s">
         <v>23</v>
@@ -75179,7 +75164,7 @@
     </row>
     <row r="1203" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1203" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1203" s="2" t="s">
         <v>47</v>
@@ -75230,7 +75215,7 @@
         <v>0.1</v>
       </c>
       <c r="R1203" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1203" s="2" t="s">
         <v>23</v>
@@ -75241,7 +75226,7 @@
     </row>
     <row r="1204" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1204" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1204" s="2" t="s">
         <v>49</v>
@@ -75292,7 +75277,7 @@
         <v>0.1</v>
       </c>
       <c r="R1204" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1204" s="2" t="s">
         <v>23</v>
@@ -75303,7 +75288,7 @@
     </row>
     <row r="1205" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1205" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1205" s="2" t="s">
         <v>51</v>
@@ -75354,7 +75339,7 @@
         <v>0.1</v>
       </c>
       <c r="R1205" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1205" s="2" t="s">
         <v>23</v>
@@ -75365,7 +75350,7 @@
     </row>
     <row r="1206" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1206" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1206" s="2" t="s">
         <v>53</v>
@@ -75416,7 +75401,7 @@
         <v>0.1</v>
       </c>
       <c r="R1206" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1206" s="2" t="s">
         <v>23</v>
@@ -75478,7 +75463,7 @@
         <v>0.1</v>
       </c>
       <c r="R1207" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1207" s="2" t="s">
         <v>23</v>
@@ -75540,7 +75525,7 @@
         <v>0.1</v>
       </c>
       <c r="R1208" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1208" s="2" t="s">
         <v>23</v>
@@ -75602,7 +75587,7 @@
         <v>0.1</v>
       </c>
       <c r="R1209" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1209" s="2" t="s">
         <v>23</v>
@@ -75664,7 +75649,7 @@
         <v>0.1</v>
       </c>
       <c r="R1210" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1210" s="2" t="s">
         <v>23</v>
@@ -75726,7 +75711,7 @@
         <v>0.1</v>
       </c>
       <c r="R1211" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1211" s="2" t="s">
         <v>23</v>
@@ -75788,7 +75773,7 @@
         <v>0.1</v>
       </c>
       <c r="R1212" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1212" s="2" t="s">
         <v>23</v>
@@ -75850,7 +75835,7 @@
         <v>0.1</v>
       </c>
       <c r="R1213" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1213" s="2" t="s">
         <v>23</v>
@@ -75912,7 +75897,7 @@
         <v>0.1</v>
       </c>
       <c r="R1214" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1214" s="2" t="s">
         <v>23</v>
@@ -75974,7 +75959,7 @@
         <v>0.1</v>
       </c>
       <c r="R1215" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1215" s="2" t="s">
         <v>23</v>
@@ -76036,7 +76021,7 @@
         <v>0.1</v>
       </c>
       <c r="R1216" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1216" s="2" t="s">
         <v>23</v>
@@ -76098,7 +76083,7 @@
         <v>0.1</v>
       </c>
       <c r="R1217" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1217" s="2" t="s">
         <v>23</v>
@@ -76160,7 +76145,7 @@
         <v>0.1</v>
       </c>
       <c r="R1218" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1218" s="2" t="s">
         <v>23</v>
@@ -76222,7 +76207,7 @@
         <v>0.1</v>
       </c>
       <c r="R1219" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1219" s="2" t="s">
         <v>23</v>
@@ -76233,7 +76218,7 @@
     </row>
     <row r="1220" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1220" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1220" s="2" t="s">
         <v>45</v>
@@ -76284,7 +76269,7 @@
         <v>0.1</v>
       </c>
       <c r="R1220" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1220" s="2" t="s">
         <v>23</v>
@@ -76295,7 +76280,7 @@
     </row>
     <row r="1221" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1221" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1221" s="2" t="s">
         <v>47</v>
@@ -76346,7 +76331,7 @@
         <v>0.1</v>
       </c>
       <c r="R1221" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1221" s="2" t="s">
         <v>23</v>
@@ -76357,7 +76342,7 @@
     </row>
     <row r="1222" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1222" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1222" s="2" t="s">
         <v>49</v>
@@ -76408,7 +76393,7 @@
         <v>0.1</v>
       </c>
       <c r="R1222" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1222" s="2" t="s">
         <v>23</v>
@@ -76419,7 +76404,7 @@
     </row>
     <row r="1223" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1223" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1223" s="2" t="s">
         <v>51</v>
@@ -76470,7 +76455,7 @@
         <v>0.1</v>
       </c>
       <c r="R1223" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1223" s="2" t="s">
         <v>23</v>
@@ -76481,7 +76466,7 @@
     </row>
     <row r="1224" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1224" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1224" s="2" t="s">
         <v>53</v>
@@ -76532,7 +76517,7 @@
         <v>0.1</v>
       </c>
       <c r="R1224" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1224" s="2" t="s">
         <v>23</v>
@@ -76594,7 +76579,7 @@
         <v>0.1</v>
       </c>
       <c r="R1225" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1225" s="2" t="s">
         <v>23</v>
@@ -76656,7 +76641,7 @@
         <v>0.1</v>
       </c>
       <c r="R1226" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1226" s="2" t="s">
         <v>23</v>
@@ -76718,7 +76703,7 @@
         <v>0.1</v>
       </c>
       <c r="R1227" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1227" s="2" t="s">
         <v>23</v>
@@ -76780,7 +76765,7 @@
         <v>0.1</v>
       </c>
       <c r="R1228" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1228" s="2" t="s">
         <v>23</v>
@@ -76842,7 +76827,7 @@
         <v>0.1</v>
       </c>
       <c r="R1229" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1229" s="2" t="s">
         <v>23</v>
@@ -76904,7 +76889,7 @@
         <v>0.1</v>
       </c>
       <c r="R1230" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1230" s="2" t="s">
         <v>23</v>
@@ -76966,7 +76951,7 @@
         <v>0.1</v>
       </c>
       <c r="R1231" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1231" s="2" t="s">
         <v>23</v>
@@ -77028,7 +77013,7 @@
         <v>0.1</v>
       </c>
       <c r="R1232" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1232" s="2" t="s">
         <v>23</v>
@@ -77090,7 +77075,7 @@
         <v>0.1</v>
       </c>
       <c r="R1233" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1233" s="2" t="s">
         <v>23</v>
@@ -77152,7 +77137,7 @@
         <v>0.1</v>
       </c>
       <c r="R1234" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1234" s="2" t="s">
         <v>23</v>
@@ -77214,7 +77199,7 @@
         <v>0.1</v>
       </c>
       <c r="R1235" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1235" s="2" t="s">
         <v>23</v>
@@ -77276,7 +77261,7 @@
         <v>0.1</v>
       </c>
       <c r="R1236" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1236" s="2" t="s">
         <v>23</v>
@@ -77338,7 +77323,7 @@
         <v>0.1</v>
       </c>
       <c r="R1237" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1237" s="2" t="s">
         <v>23</v>
@@ -77349,7 +77334,7 @@
     </row>
     <row r="1238" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1238" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1238" s="2" t="s">
         <v>45</v>
@@ -77400,7 +77385,7 @@
         <v>0.1</v>
       </c>
       <c r="R1238" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1238" s="2" t="s">
         <v>23</v>
@@ -77411,7 +77396,7 @@
     </row>
     <row r="1239" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1239" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1239" s="2" t="s">
         <v>47</v>
@@ -77462,7 +77447,7 @@
         <v>0.1</v>
       </c>
       <c r="R1239" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1239" s="2" t="s">
         <v>23</v>
@@ -77473,7 +77458,7 @@
     </row>
     <row r="1240" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1240" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1240" s="2" t="s">
         <v>49</v>
@@ -77524,7 +77509,7 @@
         <v>0.1</v>
       </c>
       <c r="R1240" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1240" s="2" t="s">
         <v>23</v>
@@ -77535,7 +77520,7 @@
     </row>
     <row r="1241" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1241" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1241" s="2" t="s">
         <v>51</v>
@@ -77586,7 +77571,7 @@
         <v>0.1</v>
       </c>
       <c r="R1241" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1241" s="2" t="s">
         <v>23</v>
@@ -77597,7 +77582,7 @@
     </row>
     <row r="1242" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1242" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1242" s="2" t="s">
         <v>53</v>
@@ -77648,7 +77633,7 @@
         <v>0.1</v>
       </c>
       <c r="R1242" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1242" s="2" t="s">
         <v>23</v>
@@ -77710,7 +77695,7 @@
         <v>0.1</v>
       </c>
       <c r="R1243" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1243" s="2" t="s">
         <v>23</v>
@@ -77772,7 +77757,7 @@
         <v>0.1</v>
       </c>
       <c r="R1244" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1244" s="2" t="s">
         <v>23</v>
@@ -77834,7 +77819,7 @@
         <v>0.1</v>
       </c>
       <c r="R1245" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1245" s="2" t="s">
         <v>23</v>
@@ -77896,7 +77881,7 @@
         <v>0.1</v>
       </c>
       <c r="R1246" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1246" s="2" t="s">
         <v>23</v>
@@ -77958,7 +77943,7 @@
         <v>0.1</v>
       </c>
       <c r="R1247" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1247" s="2" t="s">
         <v>23</v>
@@ -78020,7 +78005,7 @@
         <v>0.1</v>
       </c>
       <c r="R1248" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1248" s="2" t="s">
         <v>23</v>
@@ -78082,7 +78067,7 @@
         <v>0.1</v>
       </c>
       <c r="R1249" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1249" s="2" t="s">
         <v>23</v>
@@ -78144,7 +78129,7 @@
         <v>0.1</v>
       </c>
       <c r="R1250" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1250" s="2" t="s">
         <v>23</v>
@@ -78206,7 +78191,7 @@
         <v>0.1</v>
       </c>
       <c r="R1251" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1251" s="2" t="s">
         <v>23</v>
@@ -78268,7 +78253,7 @@
         <v>0.1</v>
       </c>
       <c r="R1252" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1252" s="2" t="s">
         <v>23</v>
@@ -78330,7 +78315,7 @@
         <v>0.1</v>
       </c>
       <c r="R1253" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1253" s="2" t="s">
         <v>23</v>
@@ -78392,7 +78377,7 @@
         <v>0.1</v>
       </c>
       <c r="R1254" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1254" s="2" t="s">
         <v>23</v>
@@ -78454,7 +78439,7 @@
         <v>0.1</v>
       </c>
       <c r="R1255" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1255" s="2" t="s">
         <v>23</v>
@@ -78465,7 +78450,7 @@
     </row>
     <row r="1256" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1256" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B1256" s="2" t="s">
         <v>45</v>
@@ -78516,7 +78501,7 @@
         <v>0.1</v>
       </c>
       <c r="R1256" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1256" s="2" t="s">
         <v>23</v>
@@ -78527,7 +78512,7 @@
     </row>
     <row r="1257" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1257" s="2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B1257" s="2" t="s">
         <v>47</v>
@@ -78578,7 +78563,7 @@
         <v>0.1</v>
       </c>
       <c r="R1257" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1257" s="2" t="s">
         <v>23</v>
@@ -78589,7 +78574,7 @@
     </row>
     <row r="1258" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1258" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B1258" s="2" t="s">
         <v>49</v>
@@ -78640,7 +78625,7 @@
         <v>0.1</v>
       </c>
       <c r="R1258" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1258" s="2" t="s">
         <v>23</v>
@@ -78651,7 +78636,7 @@
     </row>
     <row r="1259" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1259" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B1259" s="2" t="s">
         <v>51</v>
@@ -78702,7 +78687,7 @@
         <v>0.1</v>
       </c>
       <c r="R1259" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1259" s="2" t="s">
         <v>23</v>
@@ -78713,7 +78698,7 @@
     </row>
     <row r="1260" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1260" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B1260" s="2" t="s">
         <v>53</v>
@@ -78764,7 +78749,7 @@
         <v>0.1</v>
       </c>
       <c r="R1260" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1260" s="2" t="s">
         <v>23</v>
@@ -78826,7 +78811,7 @@
         <v>0.1</v>
       </c>
       <c r="R1261" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="S1261" s="2" t="s">
         <v>23</v>
